--- a/medicine/Enfance/Anna_Jansson/Anna_Jansson.xlsx
+++ b/medicine/Enfance/Anna_Jansson/Anna_Jansson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Jansson, née le 13 février 1958 à Visby, sur l'île de Gotland, est une écrivaine suédoise, auteure de nombreux romans policiers et d'ouvrages de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle travaille comme infirmière depuis déjà vingt ans quand elle se lance dans l'écriture après l'achat d'un ordinateur en 1997. Même après le succès de son premier roman, Le Pacte boréal (Strum sitter guden), en 2000, elle continue à travailler comme infirmière à temps partiel.
 Son héroïne récurrente, le détective Maria Wern, mène presque toutes ses enquêtes sur l'île de Gotland, souvent dans le milieu médical.
@@ -546,9 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roman
-Série policière Maria Wern
-Stum sitter guden (2000) Publié en français sous le titre Le Pacte boréal, traduit par Carine Bruy, Boulogne-Billancourt, Les Éditions du Toucan, coll. « Toucan noir », 2010, 315 p.  (ISBN 978-2-8100-0377-8)
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série policière Maria Wern</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stum sitter guden (2000) Publié en français sous le titre Le Pacte boréal, traduit par Carine Bruy, Boulogne-Billancourt, Les Éditions du Toucan, coll. « Toucan noir », 2010, 315 p.  (ISBN 978-2-8100-0377-8)
 Alla de stillsamma döda (2001)
 Må döden sofa (2002)
 Silverkronan (2003) Publié en français sous le titre Derrière les remparts, traduit par Carine Bruy, Boulogne-Billancourt, Les Éditions du Toucan, coll. « Toucan noir », 2012, 377 p.  (ISBN 978-2-8100-0491-1)
@@ -564,15 +586,90 @@
 Dans på glödande kol (2013)
 Skymningens barfotabarn (2014)
 Alla kan se dig (2015)
-Rädslans fångar (2016)
-Autres romans
-Dömd för mord (2003)
+Rädslans fångar (2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anna_Jansson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anna_Jansson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dömd för mord (2003)
 I stormen ska du dö (2007)
 Hantverkarsvett är dyrare än saffran (2008)
-Ödesgudinnan på Salong d'Amour (2014) Publié en français sous le titre Quand le destin s'emmêle, traduit par Anne Karila, Paris, Robert Laffont, 2016, 357 p.  (ISBN 978-2-221-15729-9)
-Littérature d'enfance et de jeunesse
-Série Émile Wern
-Riddarnas kamp (2010)
+Ödesgudinnan på Salong d'Amour (2014) Publié en français sous le titre Quand le destin s'emmêle, traduit par Anne Karila, Paris, Robert Laffont, 2016, 357 p.  (ISBN 978-2-221-15729-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anna_Jansson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anna_Jansson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Émile Wern</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Riddarnas kamp (2010)
 Klasskassan (2010)
 Silverskatten (2010)
 Bankrånet (2010)
@@ -586,9 +683,47 @@
 Lillebror försvunnen (2014)
 Julklappstjuven (2014)
 Brevtjuven (2015)
-Mystiska meddelanden (2016)
-Autres ouvrages pour enfants
-Ditt och mitt (2007)
+Mystiska meddelanden (2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anna_Jansson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anna_Jansson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages pour enfants</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ditt och mitt (2007)
 Ingen att vara med (2007)
 Modigt Mia (2007)
 Monster finns (2007)
@@ -602,31 +737,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Anna_Jansson</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anna_Jansson</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Son héroïne Maria Wern est, à partir de 2008, incarnée par l'actrice Eva Röse dans la série télévisée suédoise Maria Wern et comporte 8 saisons.
 </t>
